--- a/04.04(장주옥)-테스트_케이스.xlsx
+++ b/04.04(장주옥)-테스트_케이스.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HwangTaeyeon\Documents\final-project-kkaekkt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E1485-2BCB-4E1D-ABAC-5065E6D769F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBACA04-76F4-4FA4-B38A-485B09A5AA73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="now" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="153">
   <si>
     <t>로고</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -250,26 +250,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>별점 입력</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트 입력 시 길이 출력 ex.(23/300)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>별점과 리뷰 저장</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>모달창 숨기기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말로 삭제하시겠습니까?' 묻는 모달창 출력-&gt;[확인]=리뷰삭제 / [취소]=모달창 숨기기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>페이징버튼</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -298,63 +278,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>내가 찜한 세탁소-예약 모달창</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크박스</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>같은 행의 셀렉트 활성화</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀렉트박스</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량 변경시 금액 반영</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제버튼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오페이 결제창 출력</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소버튼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약모달창 숨김</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>알림</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>전체 알림 리스트 출력</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 리스트 출력</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료 리스트 출력</t>
-  </si>
-  <si>
-    <t>답글 리스트 출력</t>
-  </si>
-  <si>
-    <t>취소 리스트 출력</t>
-  </si>
-  <si>
     <t>새로고침버튼</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -387,26 +314,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>조회버튼-전체</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-결제</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-완료</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-답글</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-취소</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>클릭 시 마이페이지(개인)-주문내역-진행중인 주문으로 이동</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -419,102 +326,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>마이페이지(업체)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-일반의류</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-와이셔츠</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-이불</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-운동화</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-가죽모피</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-명품가방</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-아웃도어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회버튼-기타</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 리스트 출력</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반의류 리스트 출력</t>
-  </si>
-  <si>
-    <t>와이셔츠 리스트 출력</t>
-  </si>
-  <si>
-    <t>이불 리스트 출력</t>
-  </si>
-  <si>
-    <t>운동화 리스트 출력</t>
-  </si>
-  <si>
-    <t>가죽모피 리스트 출력</t>
-  </si>
-  <si>
-    <t>명품가방 리스트 출력</t>
-  </si>
-  <si>
-    <t>아웃도어 리스트 출력</t>
-  </si>
-  <si>
-    <t>기타 리스트 출력</t>
-  </si>
-  <si>
-    <t>이름으로 검색</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호로 검색</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호 순으로 정렬</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은일자 순으로 정렬</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색창-이름</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색창-주문번호</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬-주문번호 순</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬-남은일자 순</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>취소하기</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -535,39 +346,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ㄴ(3dot 버튼)-수정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[등록] : 리뷰 수정 후 알림창 (수정이 완료되었습니다) 띄움</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>리뷰쓰기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[취소] : 리뷰 수정 폼 지우고 리뷰탭으로 전환</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ(3dot 버튼)-삭제</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰모달창-별</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰모달창-입력폼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰모달창-등록</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰모달창-취소</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -582,6 +361,277 @@
   <si>
     <t>*등록된 리뷰가 없을 시 활성화
 리뷰를 작성하는 모달창 출력 (완료일시로부터 7일 이내에만 활성화, 이후 비활성화)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ리뷰모달창&gt;별 : 별점 입력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ리뷰모달창&gt;입력폼 : 텍스트 입력 시 길이 출력 ex.(23/300)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ리뷰모달창&gt;등록버튼 : 별점과 리뷰 저장</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ리뷰탭&gt;3dot 버튼&gt;수정&gt;등록 : 리뷰 수정 후 알림창 (수정이 완료되었습니다) 띄움</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ리뷰모달창&gt;취소버튼 : 모달창 숨기기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ리뷰탭&gt;3dot 버튼&gt;수정&gt;취소 : 리뷰 수정 폼 지우고 리뷰탭으로 전환</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ예약 모달창&gt;체크박스 : 같은 행의 셀렉트 활성화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ예약 모달창&gt;체크박스 : 수량 변경시 금액 반영</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ예약 모달창&gt;체크박스 : 카카오페이 결제창 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ예약 모달창&gt;체크박스 : 예약모달창 숨김</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 : 전체 알림 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 : 결제 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 : 완료 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 : 답글 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소 : 취소 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 : 전체 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반의류 : 일반의류 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이셔츠 : 와이셔츠 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이불 : 이불 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동화 : 운동화 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽모피 : 가죽모피 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>명품가방 : 명품가방 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃도어 : 아웃도어 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 : 기타 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 : 이름으로 검색</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호 : 주문번호로 검색</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은일자 순 : 남은일자 순으로 정렬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호 순 : 주문번호 순으로 정렬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리중-주문번호별</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호로 그룹화된 리스트를 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 단위로 구분된 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호단위로 작업상태가 '세탁완료' 인 리스트와 '전달완료'인 리스트를 구분하여 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력하기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문전표인쇄 모달창 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ인쇄버튼 : 인쇄를 진행할 수 있는 윈도우 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ확인 : 모달창 숨김</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업상태가 '세탁중' 혹은 '세탁완료' 인 주문 리스트를 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업상태가 '전달완료'인 주문 리스트를 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 버튼을 누른 업체 리스트를 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신자가 본인인 알림 리스트를 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 시 매장관리-처리중-주문번호별 탭으로 이동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장관리(업체)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰관리-전체리뷰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자가 본인인 주문에 대한 리뷰 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최신순 : 등록시간이 현재와 가까운 순서대로 리뷰 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점높은순 : 평점이 높은 순서대로 리뷰 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점낮은순 : 평점이 낮은 순서대로 리뷰 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰에 대한 답글을 작성할 수 있는 답글폼 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ답글폼&gt;입력박스 : 글자를 입력할 때마다 입력 텍스트의 개수를 출력</t>
+  </si>
+  <si>
+    <t>ㄴ답글폼&gt;기본 : 어떤 주문의 리뷰에 대한 답글인지 헤드에 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ답글폼&gt;취소 : 답글폼을 지움</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ답글폼&gt;등록 : 2차 확인 모달창 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ리뷰탭&gt;3dot 버튼&gt;삭제 : 2차 확인 모달창 출력-&gt;[확인] : 리뷰삭제 / [취소] : 모달창 숨기기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ㄴ2차 확인 모달창&gt;확인 : 답글을 등록, 답글 대상 리뷰의 '답글' 버튼을 '답글완료'로 전환 후 비활성화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ㄴ2차 확인 모달창&gt;취소 : 2차 확인 모달창 숨김</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글에 대한 수정을 할 수 있는 답글폼 출력 (기존 답글의 내용이 입력박스에 반영됨)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 확인 모달창 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ삭제하기 : 답글을 삭제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰관리-미답글 리뷰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글을 달지 않은 리뷰 리스트 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ돌아가기 : 2차 확인 모달창 숨김</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ답글을 달았을 경우 해당 리스트에서 삭제됨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1599,7 +1649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1735,6 +1785,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1774,23 +1845,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2210,37 +2269,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85:E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="10" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="79.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="102.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="5" customWidth="1"/>
     <col min="8" max="8" width="28.5" customWidth="1"/>
     <col min="11" max="11" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:11" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="125.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="33"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
@@ -2251,12 +2310,12 @@
       <c r="H3" s="28"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="32" t="s">
         <v>33</v>
       </c>
@@ -2266,8 +2325,8 @@
       <c r="H4" s="29"/>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2289,14 +2348,14 @@
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="52"/>
-    </row>
-    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="38"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="54" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -2311,9 +2370,9 @@
       <c r="J7" s="38"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38"/>
-      <c r="C8" s="48"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="40" t="s">
         <v>36</v>
       </c>
@@ -2326,9 +2385,9 @@
       <c r="J8" s="38"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="38"/>
-      <c r="C9" s="48"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="40" t="s">
         <v>37</v>
       </c>
@@ -2341,9 +2400,9 @@
       <c r="J9" s="38"/>
       <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="38"/>
-      <c r="C10" s="48"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="40" t="s">
         <v>1</v>
       </c>
@@ -2356,9 +2415,9 @@
       <c r="J10" s="38"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="38"/>
-      <c r="C11" s="48"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="40" t="s">
         <v>2</v>
       </c>
@@ -2371,9 +2430,9 @@
       <c r="J11" s="38"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
-      <c r="C12" s="48"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="42" t="s">
         <v>39</v>
       </c>
@@ -2388,9 +2447,9 @@
       <c r="J12" s="38"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="38"/>
-      <c r="C13" s="48"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42" t="s">
         <v>42</v>
@@ -2403,9 +2462,9 @@
       <c r="J13" s="38"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="38"/>
-      <c r="C14" s="48"/>
+      <c r="C14" s="55"/>
       <c r="E14" s="42" t="s">
         <v>41</v>
       </c>
@@ -2417,9 +2476,9 @@
       <c r="J14" s="38"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
-      <c r="C15" s="48"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="42" t="s">
         <v>46</v>
       </c>
@@ -2430,9 +2489,9 @@
       <c r="J15" s="38"/>
       <c r="K15" s="41"/>
     </row>
-    <row r="16" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="38"/>
-      <c r="C16" s="48"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="42" t="s">
         <v>47</v>
       </c>
@@ -2443,14 +2502,14 @@
       <c r="J16" s="38"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
         <v>1</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="56" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -2470,12 +2529,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="9" t="s">
         <v>1</v>
       </c>
@@ -2493,12 +2552,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>3</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="9" t="s">
         <v>2</v>
       </c>
@@ -2516,12 +2575,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="53" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="60" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -2539,12 +2598,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
         <v>5</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="9" t="s">
         <v>7</v>
       </c>
@@ -2554,12 +2613,12 @@
       <c r="G21" s="6"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <v>6</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="9" t="s">
         <v>4</v>
       </c>
@@ -2569,11 +2628,11 @@
       <c r="G22" s="6"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13">
         <v>7</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
@@ -2584,11 +2643,11 @@
       </c>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="15">
         <v>8</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -2597,485 +2656,724 @@
       </c>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C25" s="60" t="s">
+    <row r="25" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="46"/>
+      <c r="C25" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="51"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="51"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="51"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="51"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="51"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="51"/>
+      <c r="D31" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="C32" s="51"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="51"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="51"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="51"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="51"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="3:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C37" s="51"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="51"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="51"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="43" t="s">
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="51"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="51"/>
+      <c r="D41" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="51"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F42" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="51"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="2:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="C30" s="61"/>
-      <c r="D30" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="10" t="s">
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="51"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="51"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="51"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C47" s="51"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C48" s="51"/>
+      <c r="D48" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" s="51"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="51"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" s="51"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="51"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C54" s="51"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55" s="51"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C56" s="51"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="51"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="51"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="47"/>
+      <c r="D75" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="47"/>
+      <c r="D76" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C80" s="47"/>
+      <c r="D80" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="47"/>
+      <c r="D81" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="7" t="s">
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C31" s="61"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C32" s="61"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C33" s="61"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="3:7" ht="34" x14ac:dyDescent="0.45">
-      <c r="C34" s="61"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C35" s="61"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C36" s="61"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C37" s="61"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C38" s="61"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C39" s="61"/>
-      <c r="D39" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C40" s="61"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C41" s="61"/>
-      <c r="D41" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C42" s="61"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C43" s="61"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C44" s="61"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C45" s="61"/>
-      <c r="D45" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C46" s="61"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C47" s="61"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C48" s="61"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C49" s="61"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C50" s="61"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C51" s="61"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C52" s="61"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C53" s="61"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C54" s="61"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D56" s="59"/>
-      <c r="E56" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D57" s="59"/>
-      <c r="E57" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D58" s="59"/>
-      <c r="E58" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D59" s="59"/>
-      <c r="E59" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D60" s="59"/>
-      <c r="E60" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D61" s="59"/>
-      <c r="E61" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D62" s="59"/>
-      <c r="E62" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D63" s="59"/>
-      <c r="E63" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="D64" s="59"/>
-      <c r="E64" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D65" s="59"/>
-      <c r="E65" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D66" s="59"/>
-      <c r="E66" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D67" s="59"/>
-      <c r="E67" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="E68" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="E69" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>129</v>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C96" s="47"/>
+      <c r="D96" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E96" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D55:D67"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D45:D54"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="C25:C54"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="D17:D19"/>
+  <mergeCells count="29">
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D81:D95"/>
+    <mergeCell ref="C59:C97"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E85:E91"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D31:D40"/>
+    <mergeCell ref="C25:C58"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D48:D58"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="E60:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D59:D74"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="C17:C24"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
